--- a/cs2420/efficiency/random_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/random_data_comparisons_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MergeSort</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>QuickSort</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ModQuickSort</t>
         </is>
@@ -462,182 +467,209 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.555348061489414</v>
+        <v>3.332204510175204</v>
       </c>
       <c r="C2" t="n">
         <v>3.555348061489414</v>
       </c>
       <c r="D2" t="n">
-        <v>2.70805020110221</v>
+        <v>2.079441541679836</v>
       </c>
       <c r="E2" t="n">
-        <v>3.091042453358316</v>
+        <v>2.772588722239781</v>
       </c>
       <c r="F2" t="n">
         <v>2.772588722239781</v>
       </c>
+      <c r="G2" t="n">
+        <v>2.890371757896165</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5.41610040220442</v>
+        <v>5.19295685089021</v>
       </c>
       <c r="C3" t="n">
         <v>4.90527477843843</v>
       </c>
       <c r="D3" t="n">
-        <v>3.80666248977032</v>
+        <v>2.772588722239781</v>
       </c>
       <c r="E3" t="n">
-        <v>3.784189633918261</v>
+        <v>3.850147601710058</v>
       </c>
       <c r="F3" t="n">
-        <v>3.931825632724326</v>
+        <v>4.0943445622221</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.07753744390572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6.835184586147301</v>
+        <v>6.80128303447162</v>
       </c>
       <c r="C4" t="n">
         <v>6.142037405587356</v>
       </c>
       <c r="D4" t="n">
-        <v>4.812184355372417</v>
+        <v>3.465735902799727</v>
       </c>
       <c r="E4" t="n">
-        <v>5.068904202220232</v>
+        <v>4.828313737302302</v>
       </c>
       <c r="F4" t="n">
-        <v>4.77912349311153</v>
+        <v>4.882801922586371</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.90527477843843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>7.927324360309794</v>
+        <v>8.113426639943654</v>
       </c>
       <c r="C5" t="n">
-        <v>7.438971592395862</v>
+        <v>7.639642287858013</v>
       </c>
       <c r="D5" t="n">
-        <v>5.723585101952381</v>
+        <v>4.158883083359671</v>
       </c>
       <c r="E5" t="n">
-        <v>5.883322388488279</v>
+        <v>5.726847747587197</v>
       </c>
       <c r="F5" t="n">
-        <v>5.811140992976701</v>
+        <v>5.961005339623274</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.736572297479192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>9.648208131191847</v>
+        <v>9.535534968687735</v>
       </c>
       <c r="C6" t="n">
-        <v>9.048879705849558</v>
+        <v>8.92172453036431</v>
       </c>
       <c r="D6" t="n">
+        <v>4.852030263919617</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.601230118728877</v>
       </c>
-      <c r="E6" t="n">
-        <v>6.876264611890766</v>
-      </c>
       <c r="F6" t="n">
-        <v>6.774223886357614</v>
+        <v>6.807934943699926</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.74993119378857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>10.93942624667618</v>
+        <v>11.01772709708994</v>
       </c>
       <c r="C7" t="n">
-        <v>10.50410817541833</v>
+        <v>10.53169613193716</v>
       </c>
       <c r="D7" t="n">
-        <v>7.460490305825338</v>
+        <v>5.545177444479562</v>
       </c>
       <c r="E7" t="n">
-        <v>7.637716432664798</v>
+        <v>7.454719949364001</v>
       </c>
       <c r="F7" t="n">
-        <v>7.605392364814935</v>
+        <v>7.690286020676768</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.616775808698373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>512</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4509776886259</v>
+        <v>12.3276794722814</v>
       </c>
       <c r="C8" t="n">
-        <v>11.82361824860395</v>
+        <v>11.85314068787028</v>
       </c>
       <c r="D8" t="n">
-        <v>8.282988692742602</v>
+        <v>6.238324625039508</v>
       </c>
       <c r="E8" t="n">
-        <v>8.555259392222693</v>
+        <v>8.288031567776464</v>
       </c>
       <c r="F8" t="n">
-        <v>8.570733958344267</v>
+        <v>8.590815331286851</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.574140471857987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8302178732365</v>
+        <v>13.82920930028162</v>
       </c>
       <c r="C9" t="n">
         <v>13.18624480770499</v>
       </c>
       <c r="D9" t="n">
-        <v>9.098402718735318</v>
+        <v>6.931471805599453</v>
       </c>
       <c r="E9" t="n">
-        <v>9.28702359674714</v>
+        <v>9.098626382346181</v>
       </c>
       <c r="F9" t="n">
-        <v>9.284334051884509</v>
+        <v>9.372629275019902</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.434123718577732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2048</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>15.18577233125007</v>
+        <v>15.23745556520193</v>
       </c>
       <c r="C10" t="n">
-        <v>14.58162795653824</v>
+        <v>14.56047332149534</v>
       </c>
       <c r="D10" t="n">
-        <v>9.899680314193175</v>
+        <v>7.624618986159398</v>
       </c>
       <c r="E10" t="n">
-        <v>10.12214103857747</v>
+        <v>9.900583339388739</v>
       </c>
       <c r="F10" t="n">
-        <v>10.07086466194426</v>
+        <v>10.19399064217461</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.12189992947444</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/random_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/random_data_comparisons_log.xlsx
@@ -470,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.332204510175204</v>
+        <v>3.891820298110626</v>
       </c>
       <c r="C2" t="n">
-        <v>3.555348061489414</v>
+        <v>3.891820298110626</v>
       </c>
       <c r="D2" t="n">
         <v>2.079441541679836</v>
@@ -482,10 +482,10 @@
         <v>2.772588722239781</v>
       </c>
       <c r="F2" t="n">
-        <v>2.772588722239781</v>
+        <v>2.833213344056216</v>
       </c>
       <c r="G2" t="n">
-        <v>2.890371757896165</v>
+        <v>2.70805020110221</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5.19295685089021</v>
+        <v>4.90527477843843</v>
       </c>
       <c r="C3" t="n">
         <v>4.90527477843843</v>
@@ -505,10 +505,10 @@
         <v>3.850147601710058</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0943445622221</v>
+        <v>4.127134385045092</v>
       </c>
       <c r="G3" t="n">
-        <v>4.07753744390572</v>
+        <v>3.951243718581428</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6.80128303447162</v>
+        <v>6.652863029353347</v>
       </c>
       <c r="C4" t="n">
         <v>6.142037405587356</v>
@@ -525,13 +525,13 @@
         <v>3.465735902799727</v>
       </c>
       <c r="E4" t="n">
-        <v>4.828313737302302</v>
+        <v>4.770684624465665</v>
       </c>
       <c r="F4" t="n">
         <v>4.882801922586371</v>
       </c>
       <c r="G4" t="n">
-        <v>4.90527477843843</v>
+        <v>4.820281565605037</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>8.113426639943654</v>
+        <v>7.971776122880628</v>
       </c>
       <c r="C5" t="n">
-        <v>7.639642287858013</v>
+        <v>7.698482787880947</v>
       </c>
       <c r="D5" t="n">
         <v>4.158883083359671</v>
       </c>
       <c r="E5" t="n">
-        <v>5.726847747587197</v>
+        <v>5.720311776607412</v>
       </c>
       <c r="F5" t="n">
-        <v>5.961005339623274</v>
+        <v>6.025865973825314</v>
       </c>
       <c r="G5" t="n">
-        <v>5.736572297479192</v>
+        <v>5.993961427306569</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>9.535534968687735</v>
+        <v>9.62331057957012</v>
       </c>
       <c r="C6" t="n">
-        <v>8.92172453036431</v>
+        <v>9.106866963499908</v>
       </c>
       <c r="D6" t="n">
         <v>4.852030263919617</v>
       </c>
       <c r="E6" t="n">
-        <v>6.601230118728877</v>
+        <v>6.595780513961311</v>
       </c>
       <c r="F6" t="n">
-        <v>6.807934943699926</v>
+        <v>6.8001700683022</v>
       </c>
       <c r="G6" t="n">
-        <v>6.74993119378857</v>
+        <v>6.805722553416985</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>11.01772709708994</v>
+        <v>11.0506518817864</v>
       </c>
       <c r="C7" t="n">
-        <v>10.53169613193716</v>
+        <v>10.43161267338018</v>
       </c>
       <c r="D7" t="n">
         <v>5.545177444479562</v>
       </c>
       <c r="E7" t="n">
-        <v>7.454719949364001</v>
+        <v>7.454141078146678</v>
       </c>
       <c r="F7" t="n">
-        <v>7.690286020676768</v>
+        <v>7.682021510826875</v>
       </c>
       <c r="G7" t="n">
-        <v>7.616775808698373</v>
+        <v>7.721791776817535</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>12.3276794722814</v>
+        <v>12.4509776886259</v>
       </c>
       <c r="C8" t="n">
-        <v>11.85314068787028</v>
+        <v>11.81609941618993</v>
       </c>
       <c r="D8" t="n">
         <v>6.238324625039508</v>
       </c>
       <c r="E8" t="n">
-        <v>8.288031567776464</v>
+        <v>8.282735880201754</v>
       </c>
       <c r="F8" t="n">
-        <v>8.590815331286851</v>
+        <v>8.521384396034705</v>
       </c>
       <c r="G8" t="n">
-        <v>8.574140471857987</v>
+        <v>8.45807992692373</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>13.82920930028162</v>
+        <v>13.80779083744905</v>
       </c>
       <c r="C9" t="n">
-        <v>13.18624480770499</v>
+        <v>13.22021033686062</v>
       </c>
       <c r="D9" t="n">
         <v>6.931471805599453</v>
       </c>
       <c r="E9" t="n">
-        <v>9.098626382346181</v>
+        <v>9.09963224999176</v>
       </c>
       <c r="F9" t="n">
-        <v>9.372629275019902</v>
+        <v>9.295600215927006</v>
       </c>
       <c r="G9" t="n">
-        <v>9.434123718577732</v>
+        <v>9.375770061099919</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>15.23745556520193</v>
+        <v>15.22102502380583</v>
       </c>
       <c r="C10" t="n">
-        <v>14.56047332149534</v>
+        <v>14.56435305478093</v>
       </c>
       <c r="D10" t="n">
         <v>7.624618986159398</v>
       </c>
       <c r="E10" t="n">
-        <v>9.900583339388739</v>
+        <v>9.900131928722766</v>
       </c>
       <c r="F10" t="n">
-        <v>10.19399064217461</v>
+        <v>10.08585077512872</v>
       </c>
       <c r="G10" t="n">
-        <v>10.12189992947444</v>
+        <v>10.03670639632235</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/random_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/random_data_comparisons_log.xlsx
@@ -470,22 +470,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.891820298110626</v>
+        <v>4.807354922057604</v>
       </c>
       <c r="C2" t="n">
-        <v>3.891820298110626</v>
+        <v>4.392317422778761</v>
       </c>
       <c r="D2" t="n">
-        <v>2.079441541679836</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2.772588722239781</v>
+        <v>3.906890595608519</v>
       </c>
       <c r="F2" t="n">
-        <v>2.833213344056216</v>
+        <v>4.584962500721156</v>
       </c>
       <c r="G2" t="n">
-        <v>2.70805020110221</v>
+        <v>3.700439718141092</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>4.90527477843843</v>
+        <v>7.22881869049588</v>
       </c>
       <c r="C3" t="n">
-        <v>4.90527477843843</v>
+        <v>7.366322214245816</v>
       </c>
       <c r="D3" t="n">
-        <v>2.772588722239781</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>3.850147601710058</v>
+        <v>5.426264754702098</v>
       </c>
       <c r="F3" t="n">
-        <v>4.127134385045092</v>
+        <v>5.584962500721156</v>
       </c>
       <c r="G3" t="n">
-        <v>3.951243718581428</v>
+        <v>5.700439718141092</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6.652863029353347</v>
+        <v>9.477758266443889</v>
       </c>
       <c r="C4" t="n">
-        <v>6.142037405587356</v>
+        <v>8.654636028527968</v>
       </c>
       <c r="D4" t="n">
-        <v>3.465735902799727</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4.770684624465665</v>
+        <v>6.954196310386875</v>
       </c>
       <c r="F4" t="n">
-        <v>4.882801922586371</v>
+        <v>6.977279923499917</v>
       </c>
       <c r="G4" t="n">
-        <v>4.820281565605037</v>
+        <v>6.954196310386875</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>7.971776122880628</v>
+        <v>11.85992297286176</v>
       </c>
       <c r="C5" t="n">
-        <v>7.698482787880947</v>
+        <v>11.18673328912887</v>
       </c>
       <c r="D5" t="n">
-        <v>4.158883083359671</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>5.720311776607412</v>
+        <v>8.257387842692651</v>
       </c>
       <c r="F5" t="n">
-        <v>6.025865973825314</v>
+        <v>8.357552004618084</v>
       </c>
       <c r="G5" t="n">
-        <v>5.993961427306569</v>
+        <v>8.405141463136344</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>9.62331057957012</v>
+        <v>13.78310055312227</v>
       </c>
       <c r="C6" t="n">
-        <v>9.106866963499908</v>
+        <v>13.01105249980062</v>
       </c>
       <c r="D6" t="n">
-        <v>4.852030263919617</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>6.595780513961311</v>
+        <v>9.521600439723727</v>
       </c>
       <c r="F6" t="n">
-        <v>6.8001700683022</v>
+        <v>9.727920454563199</v>
       </c>
       <c r="G6" t="n">
-        <v>6.805722553416985</v>
+        <v>9.905387005018131</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0506518817864</v>
+        <v>15.94854974724573</v>
       </c>
       <c r="C7" t="n">
-        <v>10.43161267338018</v>
+        <v>15.00558069228211</v>
       </c>
       <c r="D7" t="n">
-        <v>5.545177444479562</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>7.454141078146678</v>
+        <v>10.74483383749955</v>
       </c>
       <c r="F7" t="n">
-        <v>7.682021510826875</v>
+        <v>11.29117069932186</v>
       </c>
       <c r="G7" t="n">
-        <v>7.721791776817535</v>
+        <v>11.08347932733184</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4509776886259</v>
+        <v>17.9571814130057</v>
       </c>
       <c r="C8" t="n">
-        <v>11.81609941618993</v>
+        <v>17.07932852229149</v>
       </c>
       <c r="D8" t="n">
-        <v>6.238324625039508</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>8.282735880201754</v>
+        <v>11.95455984699983</v>
       </c>
       <c r="F8" t="n">
-        <v>8.521384396034705</v>
+        <v>12.17866485100647</v>
       </c>
       <c r="G8" t="n">
-        <v>8.45807992692373</v>
+        <v>12.14942959005674</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>13.80779083744905</v>
+        <v>19.89794735266844</v>
       </c>
       <c r="C9" t="n">
-        <v>13.22021033686062</v>
+        <v>18.96148643508259</v>
       </c>
       <c r="D9" t="n">
-        <v>6.931471805599453</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>9.09963224999176</v>
+        <v>13.12282799480767</v>
       </c>
       <c r="F9" t="n">
-        <v>9.295600215927006</v>
+        <v>13.42403503329866</v>
       </c>
       <c r="G9" t="n">
-        <v>9.375770061099919</v>
+        <v>13.56961830344664</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>15.22102502380583</v>
+        <v>21.93593332602598</v>
       </c>
       <c r="C10" t="n">
-        <v>14.56435305478093</v>
+        <v>21.03409434960068</v>
       </c>
       <c r="D10" t="n">
-        <v>7.624618986159398</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>9.900131928722766</v>
+        <v>14.28453495400842</v>
       </c>
       <c r="F10" t="n">
-        <v>10.08585077512872</v>
+        <v>14.61867226904897</v>
       </c>
       <c r="G10" t="n">
-        <v>10.03670639632235</v>
+        <v>14.54803919301975</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/random_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/random_data_comparisons_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,22 +470,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4.807354922057604</v>
+        <v>5.129283016944966</v>
       </c>
       <c r="C2" t="n">
-        <v>4.392317422778761</v>
+        <v>5.614709844115208</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.906890595608519</v>
       </c>
-      <c r="F2" t="n">
-        <v>4.584962500721156</v>
-      </c>
       <c r="G2" t="n">
-        <v>3.700439718141092</v>
+        <v>3.807354922057604</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>7.22881869049588</v>
+        <v>7.714245517666122</v>
       </c>
       <c r="C3" t="n">
         <v>7.366322214245816</v>
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>5.426264754702098</v>
+        <v>5.523561956057013</v>
       </c>
       <c r="F3" t="n">
-        <v>5.584962500721156</v>
+        <v>5.459431618637297</v>
       </c>
       <c r="G3" t="n">
-        <v>5.700439718141092</v>
+        <v>5.807354922057604</v>
       </c>
     </row>
     <row r="4">
@@ -519,19 +519,19 @@
         <v>9.477758266443889</v>
       </c>
       <c r="C4" t="n">
-        <v>8.654636028527968</v>
+        <v>9.346513733165635</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>6.954196310386875</v>
+        <v>6.894817763307944</v>
       </c>
       <c r="F4" t="n">
-        <v>6.977279923499917</v>
+        <v>7.022367813028454</v>
       </c>
       <c r="G4" t="n">
-        <v>6.954196310386875</v>
+        <v>7.276124405274238</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>11.85992297286176</v>
+        <v>11.93147623388679</v>
       </c>
       <c r="C5" t="n">
-        <v>11.18673328912887</v>
+        <v>11.26268214236216</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>8.257387842692651</v>
+        <v>8.271463027904375</v>
       </c>
       <c r="F5" t="n">
-        <v>8.357552004618084</v>
+        <v>8.503825737995751</v>
       </c>
       <c r="G5" t="n">
-        <v>8.405141463136344</v>
+        <v>8.661778097771988</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>13.78310055312227</v>
+        <v>13.82157470093691</v>
       </c>
       <c r="C6" t="n">
-        <v>13.01105249980062</v>
+        <v>13.25547122746707</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>9.521600439723727</v>
+        <v>9.531381460516313</v>
       </c>
       <c r="F6" t="n">
-        <v>9.727920454563199</v>
+        <v>9.631177055703979</v>
       </c>
       <c r="G6" t="n">
-        <v>9.905387005018131</v>
+        <v>9.717676423066395</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>15.94854974724573</v>
+        <v>15.81453239927405</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00558069228211</v>
+        <v>15.09238551981938</v>
       </c>
       <c r="D7" t="n">
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>10.74483383749955</v>
+        <v>10.76735685412569</v>
       </c>
       <c r="F7" t="n">
-        <v>11.29117069932186</v>
+        <v>10.93221475196838</v>
       </c>
       <c r="G7" t="n">
-        <v>11.08347932733184</v>
+        <v>10.92332748541919</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9571814130057</v>
+        <v>17.94846419590459</v>
       </c>
       <c r="C8" t="n">
-        <v>17.07932852229149</v>
+        <v>16.99153291779648</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>11.95455984699983</v>
+        <v>11.95274124718649</v>
       </c>
       <c r="F8" t="n">
-        <v>12.17866485100647</v>
+        <v>12.39124358942744</v>
       </c>
       <c r="G8" t="n">
-        <v>12.14942959005674</v>
+        <v>12.29232163280204</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>19.89794735266844</v>
+        <v>19.92636839182767</v>
       </c>
       <c r="C9" t="n">
-        <v>18.96148643508259</v>
+        <v>18.99011227582102</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>13.12282799480767</v>
+        <v>13.13298161852935</v>
       </c>
       <c r="F9" t="n">
-        <v>13.42403503329866</v>
+        <v>13.64925617751731</v>
       </c>
       <c r="G9" t="n">
-        <v>13.56961830344664</v>
+        <v>13.38437904812963</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,45 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>21.93593332602598</v>
+        <v>21.97585951043874</v>
       </c>
       <c r="C10" t="n">
-        <v>21.03409434960068</v>
+        <v>21.03958510804913</v>
       </c>
       <c r="D10" t="n">
         <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>14.28453495400842</v>
+        <v>14.28720734789944</v>
       </c>
       <c r="F10" t="n">
-        <v>14.61867226904897</v>
+        <v>14.8275411901725</v>
       </c>
       <c r="G10" t="n">
-        <v>14.54803919301975</v>
+        <v>14.63163180591764</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23.94435979757186</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.04745329053596</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.42587152477892</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.78907508850915</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.77208256099544</v>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/random_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/random_data_comparisons_log.xlsx
@@ -469,230 +469,350 @@
       <c r="A2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>5.129283016944966</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.614709844115208</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.906890595608519</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.807354922057604</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>7.714245517666122</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.366322214245816</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.523561956057013</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.459431618637297</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.807354922057604</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>9.477758266443889</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.346513733165635</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.894817763307944</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.022367813028454</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.276124405274238</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
-        <v>11.93147623388679</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.26268214236216</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.271463027904375</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.503825737995751</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.661778097771988</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>13.82157470093691</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.25547122746707</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.531381460516313</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.631177055703979</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.717676423066395</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>15.81453239927405</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.09238551981938</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.76735685412569</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.93221475196838</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.92332748541919</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
-        <v>17.94846419590459</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.99153291779648</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.95274124718649</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.39124358942744</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12.29232163280204</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
-        <v>19.92636839182767</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18.99011227582102</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13.13298161852935</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13.64925617751731</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.38437904812963</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
-        <v>21.97585951043874</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21.03958510804913</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14.28720734789944</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14.8275411901725</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.63163180591764</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
-        <v>23.94435979757186</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.04745329053596</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>15.42587152477892</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15.78907508850915</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15.77208256099544</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/cs2420/efficiency/random_data_comparisons_log.xlsx
+++ b/cs2420/efficiency/random_data_comparisons_log.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,17 +486,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.00</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.21</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>8.40</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.73</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,17 +626,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>10.96</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17.93</t>
+          <t>17.86</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>12.32</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19.92</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13.13</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13.69</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>13.56</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21.96</t>
+          <t>21.98</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14.68</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>14.69</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>22.98</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>15.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15.80</t>
+          <t>15.84</t>
         </is>
       </c>
     </row>
